--- a/login_history.xlsx
+++ b/login_history.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,6 +781,102 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-05-07 16:12:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-05-07 16:17:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-05-07 16:22:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-05-07 16:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-05-07 16:24:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-05-07 16:31:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-05-07 16:33:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-05-07 16:34:46</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
